--- a/Tickets2.xlsx
+++ b/Tickets2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Flutter\tickets_web_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F8E4399-62B8-413E-8261-7D07B77F5B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55121C69-0A73-47D3-9646-6058A33FF813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{F42067A7-B6A6-4329-A610-7A788389E485}"/>
   </bookViews>
